--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Product</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>PROD 10</t>
+  </si>
+  <si>
+    <t>PROD 1</t>
   </si>
 </sst>
 </file>
@@ -844,7 +850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -861,6 +867,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>9999991</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>-21</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
